--- a/RESCRP11.xlsx
+++ b/RESCRP11.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amith\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pypros\project_june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4EE16E-8F79-C740-9B19-0C4108BE20C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="338">
   <si>
     <t>Period</t>
   </si>
@@ -1041,12 +1040,15 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
@@ -1396,159 +1398,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="HF1" sqref="HF1"/>
+    <sheetView tabSelected="1" topLeftCell="GO1" workbookViewId="0">
+      <selection activeCell="GX10" sqref="GX10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.55078125" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="3" width="6.58984375" customWidth="1"/>
-    <col min="4" max="4" width="4.3046875" customWidth="1"/>
-    <col min="5" max="5" width="3.62890625" customWidth="1"/>
-    <col min="6" max="6" width="10.0859375" customWidth="1"/>
-    <col min="7" max="7" width="8.33984375" customWidth="1"/>
-    <col min="8" max="8" width="3.8984375" customWidth="1"/>
-    <col min="9" max="9" width="7.53125" customWidth="1"/>
-    <col min="10" max="10" width="7.12890625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.9453125" customWidth="1"/>
-    <col min="13" max="13" width="5.6484375" customWidth="1"/>
-    <col min="14" max="14" width="7.12890625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.33984375" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.8984375" customWidth="1"/>
-    <col min="20" max="20" width="57.57421875" customWidth="1"/>
-    <col min="21" max="21" width="28.65234375" customWidth="1"/>
-    <col min="22" max="22" width="76.8125" customWidth="1"/>
-    <col min="23" max="23" width="12.64453125" customWidth="1"/>
-    <col min="24" max="24" width="14.796875" customWidth="1"/>
-    <col min="25" max="25" width="22.8671875" customWidth="1"/>
-    <col min="26" max="26" width="34.97265625" customWidth="1"/>
-    <col min="27" max="27" width="13.1796875" customWidth="1"/>
-    <col min="28" max="29" width="29.45703125" customWidth="1"/>
-    <col min="30" max="31" width="11.1640625" customWidth="1"/>
-    <col min="32" max="32" width="10.625" customWidth="1"/>
-    <col min="33" max="33" width="9.4140625" customWidth="1"/>
-    <col min="34" max="34" width="2.15234375" customWidth="1"/>
-    <col min="35" max="35" width="6.859375" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="57.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="76.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="22.85546875" customWidth="1"/>
+    <col min="26" max="26" width="35" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="29" width="29.42578125" customWidth="1"/>
+    <col min="30" max="31" width="11.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" customWidth="1"/>
+    <col min="34" max="34" width="2.140625" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" customWidth="1"/>
     <col min="36" max="36" width="4.5703125" customWidth="1"/>
-    <col min="37" max="37" width="108.6953125" customWidth="1"/>
-    <col min="38" max="72" width="2.15234375" customWidth="1"/>
-    <col min="73" max="73" width="7.26171875" customWidth="1"/>
-    <col min="74" max="74" width="10.625" customWidth="1"/>
-    <col min="75" max="75" width="11.1640625" customWidth="1"/>
-    <col min="76" max="76" width="2.15234375" customWidth="1"/>
-    <col min="77" max="83" width="11.1640625" customWidth="1"/>
-    <col min="84" max="85" width="13.44921875" customWidth="1"/>
-    <col min="86" max="92" width="10.625" customWidth="1"/>
-    <col min="93" max="93" width="13.44921875" customWidth="1"/>
-    <col min="95" max="95" width="20.58203125" customWidth="1"/>
-    <col min="96" max="96" width="4.70703125" customWidth="1"/>
-    <col min="97" max="97" width="9.953125" customWidth="1"/>
-    <col min="98" max="98" width="27.84375" customWidth="1"/>
-    <col min="99" max="99" width="6.58984375" customWidth="1"/>
-    <col min="100" max="100" width="57.57421875" customWidth="1"/>
-    <col min="101" max="101" width="18.4296875" customWidth="1"/>
-    <col min="102" max="102" width="13.1796875" customWidth="1"/>
-    <col min="103" max="103" width="16.41015625" customWidth="1"/>
-    <col min="104" max="104" width="18.4296875" customWidth="1"/>
-    <col min="105" max="105" width="13.1796875" customWidth="1"/>
-    <col min="106" max="106" width="16.41015625" customWidth="1"/>
-    <col min="107" max="107" width="3.62890625" customWidth="1"/>
-    <col min="108" max="108" width="10.625" customWidth="1"/>
-    <col min="109" max="110" width="8.875" customWidth="1"/>
-    <col min="111" max="111" width="9.4140625" customWidth="1"/>
-    <col min="112" max="112" width="6.72265625" customWidth="1"/>
-    <col min="113" max="113" width="8.33984375" customWidth="1"/>
-    <col min="114" max="114" width="4.16796875" customWidth="1"/>
-    <col min="115" max="115" width="12.23828125" customWidth="1"/>
-    <col min="116" max="116" width="8.33984375" customWidth="1"/>
-    <col min="117" max="117" width="4.83984375" customWidth="1"/>
-    <col min="118" max="118" width="12.23828125" customWidth="1"/>
-    <col min="119" max="119" width="4.9765625" customWidth="1"/>
+    <col min="37" max="37" width="108.7109375" customWidth="1"/>
+    <col min="38" max="72" width="2.140625" customWidth="1"/>
+    <col min="73" max="73" width="7.28515625" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" customWidth="1"/>
+    <col min="75" max="75" width="11.140625" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" customWidth="1"/>
+    <col min="77" max="83" width="11.140625" customWidth="1"/>
+    <col min="84" max="85" width="13.42578125" customWidth="1"/>
+    <col min="86" max="92" width="10.5703125" customWidth="1"/>
+    <col min="93" max="93" width="13.42578125" customWidth="1"/>
+    <col min="95" max="95" width="20.5703125" customWidth="1"/>
+    <col min="96" max="96" width="4.7109375" customWidth="1"/>
+    <col min="97" max="97" width="10" customWidth="1"/>
+    <col min="98" max="98" width="27.85546875" customWidth="1"/>
+    <col min="99" max="99" width="6.5703125" customWidth="1"/>
+    <col min="100" max="100" width="57.5703125" customWidth="1"/>
+    <col min="101" max="101" width="18.42578125" customWidth="1"/>
+    <col min="102" max="102" width="13.140625" customWidth="1"/>
+    <col min="103" max="103" width="16.42578125" customWidth="1"/>
+    <col min="104" max="104" width="18.42578125" customWidth="1"/>
+    <col min="105" max="105" width="13.140625" customWidth="1"/>
+    <col min="106" max="106" width="16.42578125" customWidth="1"/>
+    <col min="107" max="107" width="3.5703125" customWidth="1"/>
+    <col min="108" max="108" width="10.5703125" customWidth="1"/>
+    <col min="109" max="110" width="8.85546875" customWidth="1"/>
+    <col min="111" max="111" width="9.42578125" customWidth="1"/>
+    <col min="112" max="112" width="6.7109375" customWidth="1"/>
+    <col min="113" max="113" width="8.28515625" customWidth="1"/>
+    <col min="114" max="114" width="4.140625" customWidth="1"/>
+    <col min="115" max="115" width="12.28515625" customWidth="1"/>
+    <col min="116" max="116" width="8.28515625" customWidth="1"/>
+    <col min="117" max="117" width="4.85546875" customWidth="1"/>
+    <col min="118" max="118" width="12.28515625" customWidth="1"/>
+    <col min="119" max="119" width="5" customWidth="1"/>
     <col min="120" max="120" width="4.5703125" customWidth="1"/>
-    <col min="121" max="121" width="33.8984375" customWidth="1"/>
-    <col min="122" max="122" width="9.953125" customWidth="1"/>
-    <col min="123" max="123" width="6.859375" customWidth="1"/>
-    <col min="124" max="124" width="11.1640625" customWidth="1"/>
-    <col min="125" max="125" width="25.828125" customWidth="1"/>
-    <col min="126" max="126" width="4.3046875" customWidth="1"/>
-    <col min="127" max="127" width="27.84375" customWidth="1"/>
-    <col min="128" max="128" width="7.6640625" customWidth="1"/>
-    <col min="129" max="129" width="9.953125" customWidth="1"/>
-    <col min="130" max="130" width="4.9765625" customWidth="1"/>
-    <col min="131" max="131" width="14.796875" customWidth="1"/>
-    <col min="132" max="132" width="22.8671875" customWidth="1"/>
-    <col min="133" max="133" width="5.24609375" customWidth="1"/>
-    <col min="134" max="134" width="37.6640625" customWidth="1"/>
-    <col min="135" max="135" width="28.65234375" customWidth="1"/>
-    <col min="136" max="136" width="13.31640625" customWidth="1"/>
-    <col min="137" max="137" width="27.3046875" customWidth="1"/>
-    <col min="138" max="138" width="9.14453125" customWidth="1"/>
-    <col min="139" max="139" width="23.40625" customWidth="1"/>
-    <col min="141" max="142" width="22.59765625" customWidth="1"/>
-    <col min="144" max="144" width="21.65625" customWidth="1"/>
+    <col min="121" max="121" width="33.85546875" customWidth="1"/>
+    <col min="122" max="122" width="10" customWidth="1"/>
+    <col min="123" max="123" width="6.85546875" customWidth="1"/>
+    <col min="124" max="124" width="11.140625" customWidth="1"/>
+    <col min="125" max="125" width="25.85546875" customWidth="1"/>
+    <col min="126" max="126" width="4.28515625" customWidth="1"/>
+    <col min="127" max="127" width="27.85546875" customWidth="1"/>
+    <col min="128" max="128" width="7.7109375" customWidth="1"/>
+    <col min="129" max="129" width="10" customWidth="1"/>
+    <col min="130" max="130" width="5" customWidth="1"/>
+    <col min="131" max="131" width="14.85546875" customWidth="1"/>
+    <col min="132" max="132" width="22.85546875" customWidth="1"/>
+    <col min="133" max="133" width="5.28515625" customWidth="1"/>
+    <col min="134" max="134" width="37.7109375" customWidth="1"/>
+    <col min="135" max="135" width="28.7109375" customWidth="1"/>
+    <col min="136" max="136" width="13.28515625" customWidth="1"/>
+    <col min="137" max="137" width="27.28515625" customWidth="1"/>
+    <col min="138" max="138" width="9.140625" customWidth="1"/>
+    <col min="139" max="139" width="23.42578125" customWidth="1"/>
+    <col min="141" max="142" width="22.5703125" customWidth="1"/>
+    <col min="144" max="144" width="21.7109375" customWidth="1"/>
     <col min="145" max="145" width="4.5703125" customWidth="1"/>
-    <col min="146" max="146" width="4.9765625" customWidth="1"/>
-    <col min="147" max="147" width="7.12890625" customWidth="1"/>
-    <col min="148" max="148" width="2.15234375" customWidth="1"/>
-    <col min="149" max="149" width="6.05078125" customWidth="1"/>
-    <col min="150" max="150" width="9.28125" customWidth="1"/>
-    <col min="151" max="151" width="8.33984375" customWidth="1"/>
-    <col min="153" max="153" width="2.15234375" customWidth="1"/>
-    <col min="154" max="154" width="8.7421875" customWidth="1"/>
-    <col min="155" max="155" width="29.45703125" customWidth="1"/>
-    <col min="156" max="157" width="8.875" customWidth="1"/>
-    <col min="158" max="158" width="10.625" customWidth="1"/>
-    <col min="159" max="159" width="9.4140625" customWidth="1"/>
-    <col min="160" max="160" width="12.64453125" customWidth="1"/>
-    <col min="161" max="161" width="8.33984375" customWidth="1"/>
+    <col min="146" max="146" width="5" customWidth="1"/>
+    <col min="147" max="147" width="7.140625" customWidth="1"/>
+    <col min="148" max="148" width="2.140625" customWidth="1"/>
+    <col min="149" max="149" width="6" customWidth="1"/>
+    <col min="150" max="150" width="9.28515625" customWidth="1"/>
+    <col min="151" max="151" width="8.28515625" customWidth="1"/>
+    <col min="153" max="153" width="2.140625" customWidth="1"/>
+    <col min="154" max="154" width="8.7109375" customWidth="1"/>
+    <col min="155" max="155" width="29.42578125" customWidth="1"/>
+    <col min="156" max="157" width="8.85546875" customWidth="1"/>
+    <col min="158" max="158" width="10.5703125" customWidth="1"/>
+    <col min="159" max="159" width="9.42578125" customWidth="1"/>
+    <col min="160" max="160" width="12.7109375" customWidth="1"/>
+    <col min="161" max="161" width="8.28515625" customWidth="1"/>
     <col min="162" max="162" width="4.5703125" customWidth="1"/>
-    <col min="163" max="163" width="2.15234375" customWidth="1"/>
-    <col min="165" max="165" width="2.15234375" customWidth="1"/>
-    <col min="166" max="166" width="9.953125" customWidth="1"/>
-    <col min="167" max="167" width="2.15234375" customWidth="1"/>
-    <col min="168" max="168" width="19.1015625" customWidth="1"/>
-    <col min="169" max="169" width="20.984375" customWidth="1"/>
-    <col min="172" max="172" width="2.15234375" customWidth="1"/>
-    <col min="174" max="174" width="2.41796875" customWidth="1"/>
-    <col min="175" max="175" width="3.8984375" customWidth="1"/>
-    <col min="178" max="178" width="2.41796875" customWidth="1"/>
-    <col min="179" max="179" width="5.24609375" customWidth="1"/>
-    <col min="180" max="180" width="28.3828125" customWidth="1"/>
-    <col min="181" max="181" width="28.25" customWidth="1"/>
-    <col min="182" max="182" width="10.35546875" customWidth="1"/>
-    <col min="185" max="185" width="12.9140625" customWidth="1"/>
-    <col min="186" max="186" width="28.78515625" customWidth="1"/>
-    <col min="187" max="187" width="27.0390625" customWidth="1"/>
-    <col min="188" max="188" width="4.70703125" customWidth="1"/>
-    <col min="189" max="189" width="17.08203125" customWidth="1"/>
-    <col min="190" max="190" width="43.71875" customWidth="1"/>
-    <col min="191" max="191" width="12.64453125" customWidth="1"/>
-    <col min="192" max="192" width="8.7421875" customWidth="1"/>
-    <col min="193" max="193" width="11.1640625" customWidth="1"/>
-    <col min="194" max="197" width="12.64453125" customWidth="1"/>
-    <col min="198" max="198" width="10.625" customWidth="1"/>
-    <col min="199" max="199" width="12.64453125" customWidth="1"/>
-    <col min="200" max="200" width="11.1640625" customWidth="1"/>
-    <col min="201" max="202" width="12.64453125" customWidth="1"/>
-    <col min="203" max="203" width="11.1640625" customWidth="1"/>
-    <col min="204" max="204" width="4.4375" customWidth="1"/>
-    <col min="205" max="205" width="12.64453125" customWidth="1"/>
+    <col min="163" max="163" width="2.140625" customWidth="1"/>
+    <col min="165" max="165" width="2.140625" customWidth="1"/>
+    <col min="166" max="166" width="10" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" customWidth="1"/>
+    <col min="168" max="168" width="19.140625" customWidth="1"/>
+    <col min="169" max="169" width="21" customWidth="1"/>
+    <col min="172" max="172" width="2.140625" customWidth="1"/>
+    <col min="174" max="174" width="2.42578125" customWidth="1"/>
+    <col min="175" max="175" width="3.85546875" customWidth="1"/>
+    <col min="178" max="178" width="2.42578125" customWidth="1"/>
+    <col min="179" max="179" width="5.28515625" customWidth="1"/>
+    <col min="180" max="180" width="28.42578125" customWidth="1"/>
+    <col min="181" max="181" width="28.28515625" customWidth="1"/>
+    <col min="182" max="182" width="10.28515625" customWidth="1"/>
+    <col min="185" max="185" width="12.85546875" customWidth="1"/>
+    <col min="186" max="186" width="28.7109375" customWidth="1"/>
+    <col min="187" max="187" width="27" customWidth="1"/>
+    <col min="188" max="188" width="4.7109375" customWidth="1"/>
+    <col min="189" max="189" width="17.140625" customWidth="1"/>
+    <col min="190" max="190" width="43.7109375" customWidth="1"/>
+    <col min="191" max="191" width="12.7109375" customWidth="1"/>
+    <col min="192" max="192" width="8.7109375" customWidth="1"/>
+    <col min="193" max="193" width="11.140625" customWidth="1"/>
+    <col min="194" max="197" width="12.7109375" customWidth="1"/>
+    <col min="198" max="198" width="10.5703125" customWidth="1"/>
+    <col min="199" max="199" width="12.7109375" customWidth="1"/>
+    <col min="200" max="200" width="11.140625" customWidth="1"/>
+    <col min="201" max="202" width="12.7109375" customWidth="1"/>
+    <col min="203" max="203" width="11.140625" customWidth="1"/>
+    <col min="204" max="204" width="4.42578125" customWidth="1"/>
+    <col min="205" max="205" width="12.7109375" customWidth="1"/>
     <col min="206" max="206" width="13.85546875" customWidth="1"/>
-    <col min="207" max="207" width="4.4375" customWidth="1"/>
-    <col min="208" max="208" width="5.37890625" customWidth="1"/>
-    <col min="209" max="209" width="11.296875" customWidth="1"/>
+    <col min="207" max="207" width="4.42578125" customWidth="1"/>
+    <col min="208" max="208" width="5.42578125" customWidth="1"/>
+    <col min="209" max="209" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>43889.723117268521</v>
       </c>
     </row>
-    <row r="3" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>209</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>43889.723117303241</v>
       </c>
     </row>
-    <row r="4" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>209</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>43889.723117314818</v>
       </c>
     </row>
-    <row r="5" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>43889.723125694443</v>
       </c>
     </row>
-    <row r="6" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>209</v>
       </c>
@@ -5081,8 +5083,8 @@
       <c r="GW6" s="1">
         <v>0</v>
       </c>
-      <c r="GX6" s="1">
-        <v>0</v>
+      <c r="GX6" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="GY6" s="1" t="s">
         <v>255</v>
@@ -5094,7 +5096,7 @@
         <v>43889.723125706019</v>
       </c>
     </row>
-    <row r="7" spans="1:209" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>209</v>
       </c>
